--- a/statistiche/bpic2012RandomForestCounterfactualsWithMax_1/206270.xlsx
+++ b/statistiche/bpic2012RandomForestCounterfactualsWithMax_1/206270.xlsx
@@ -458,182 +458,182 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>W_Beoordelen fraude-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>O_SELECTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>W_Valideren aanvraag-COMPLETE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>W_Beoordelen fraude-START</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>A_ACTIVATED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>A_APPROVED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-COMPLETE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>W_Beoordelen fraude-COMPLETE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>A_PARTLYSUBMITTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-START</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen offertes-START</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-COMPLETE</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>A_SUBMITTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>A_REGISTERED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>O_SENT_BACK-COMPLETE</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-START</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-START</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>O_CREATED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>O_ACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>W_Wijzigen contractgegevens-SCHEDULE</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>A_SUBMITTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>A_ACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen offertes-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>A_PREACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>A_FINALIZED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>O_DECLINED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>A_DECLINED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>A_CANCELLED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>W_Valideren aanvraag-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>O_CANCELLED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>W_Nabellen offertes-SCHEDULE</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-START</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>A_FINALIZED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>O_SENT-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>W_Valideren aanvraag-START</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>W_Valideren aanvraag-COMPLETE</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>O_SELECTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-START</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>A_DECLINED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen offertes-COMPLETE</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>A_APPROVED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-COMPLETE</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-COMPLETE</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>O_ACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-COMPLETE</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>A_PREACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>O_CANCELLED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen offertes-START</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>A_ACTIVATED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>A_ACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>O_CREATED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>A_REGISTERED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>A_CANCELLED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-START</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>W_Valideren aanvraag-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>O_DECLINED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>O_SENT_BACK-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-START</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>O_SENT-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>A_PARTLYSUBMITTED-COMPLETE</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2" t="n">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="AL4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="3" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="3" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2" t="n">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2" t="n">
         <v>0</v>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" s="2" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="2" t="n">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="AL6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="3" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
@@ -1393,10 +1393,10 @@
         <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7" s="3" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>0</v>
@@ -1478,13 +1478,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" s="2" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="2" t="n">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="AL8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8" s="3" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1605,13 +1605,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -1653,10 +1653,10 @@
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9" s="3" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>0</v>
@@ -1738,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2" t="n">
         <v>0</v>
@@ -1756,10 +1756,10 @@
         <v>0</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" s="2" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10" s="2" t="n">
         <v>0</v>
@@ -1801,13 +1801,13 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10" s="3" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1865,13 +1865,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG11" t="n">
         <v>0</v>
@@ -1928,13 +1928,13 @@
         <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="3" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>0</v>
@@ -1998,13 +1998,13 @@
         <v>0</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" s="2" t="n">
         <v>0</v>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC12" s="2" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="3" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -2125,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -2173,10 +2173,10 @@
         <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
@@ -2188,13 +2188,13 @@
         <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13" s="3" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="2" t="n">
         <v>1</v>
@@ -2258,13 +2258,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="2" t="n">
         <v>0</v>
@@ -2276,10 +2276,10 @@
         <v>0</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" s="2" t="n">
         <v>0</v>
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="AB14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14" s="2" t="n">
         <v>0</v>
@@ -2321,13 +2321,13 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="3" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>1</v>
@@ -2385,13 +2385,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -2436,25 +2436,25 @@
         <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15" t="n">
         <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK15" t="n">
         <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15" s="3" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>0</v>
@@ -2503,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="2" t="n">
         <v>1</v>
@@ -2518,13 +2518,13 @@
         <v>0</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2" t="n">
         <v>0</v>
@@ -2536,10 +2536,10 @@
         <v>0</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" s="2" t="n">
         <v>0</v>
@@ -2557,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="AB16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD16" s="2" t="n">
         <v>0</v>
@@ -2581,13 +2581,13 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16" s="3" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>1</v>
@@ -2645,13 +2645,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2663,10 +2663,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -2684,13 +2684,13 @@
         <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>0</v>
@@ -2702,19 +2702,19 @@
         <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17" s="3" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="2" t="n">
         <v>1</v>
@@ -2778,13 +2778,13 @@
         <v>0</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2" t="n">
         <v>0</v>
@@ -2796,13 +2796,13 @@
         <v>0</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18" s="2" t="n">
         <v>0</v>
@@ -2814,13 +2814,13 @@
         <v>1</v>
       </c>
       <c r="AA18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD18" s="2" t="n">
         <v>0</v>
@@ -2841,13 +2841,13 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18" s="3" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2890,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
@@ -2905,13 +2905,13 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2920,40 +2920,40 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19" t="n">
         <v>1</v>
       </c>
       <c r="AA19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF19" t="n">
         <v>0</v>
@@ -2968,13 +2968,13 @@
         <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK19" t="n">
         <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19" s="3" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>0</v>
@@ -3023,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="2" t="n">
         <v>1</v>
@@ -3038,13 +3038,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="2" t="n">
         <v>0</v>
@@ -3056,13 +3056,13 @@
         <v>0</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20" s="2" t="n">
         <v>0</v>
@@ -3074,13 +3074,13 @@
         <v>1</v>
       </c>
       <c r="AA20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD20" s="2" t="n">
         <v>0</v>
@@ -3101,13 +3101,13 @@
         <v>0</v>
       </c>
       <c r="AJ20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20" s="3" t="inlineStr">
         <is>
@@ -3135,22 +3135,22 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -3165,13 +3165,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3183,13 +3183,13 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>1</v>
       </c>
       <c r="AA21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -3228,13 +3228,13 @@
         <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
         <v>1</v>
       </c>
       <c r="AL21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21" s="3" t="inlineStr">
         <is>
@@ -3268,13 +3268,13 @@
         <v>1</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="2" t="n">
         <v>1</v>
@@ -3298,13 +3298,13 @@
         <v>0</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="2" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22" s="2" t="n">
         <v>0</v>
@@ -3334,13 +3334,13 @@
         <v>1</v>
       </c>
       <c r="AA22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD22" s="2" t="n">
         <v>0</v>
@@ -3367,7 +3367,7 @@
         <v>1</v>
       </c>
       <c r="AL22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22" s="3" t="inlineStr">
         <is>
@@ -3395,13 +3395,13 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -3410,13 +3410,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -3425,13 +3425,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3443,13 +3443,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -3461,19 +3461,19 @@
         <v>1</v>
       </c>
       <c r="AA23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
         <v>0</v>
@@ -3494,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="AL23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23" s="3" t="inlineStr">
         <is>
@@ -3528,22 +3528,22 @@
         <v>1</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="2" t="n">
         <v>1</v>
@@ -3558,13 +3558,13 @@
         <v>0</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="2" t="n">
         <v>0</v>
@@ -3576,13 +3576,13 @@
         <v>0</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" s="2" t="n">
         <v>0</v>
@@ -3594,16 +3594,16 @@
         <v>1</v>
       </c>
       <c r="AA24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="2" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>1</v>
       </c>
       <c r="AL24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="3" t="inlineStr">
         <is>
@@ -3655,22 +3655,22 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -3682,16 +3682,16 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3703,13 +3703,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -3721,19 +3721,19 @@
         <v>1</v>
       </c>
       <c r="AA25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF25" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25" s="3" t="inlineStr">
         <is>
@@ -3788,22 +3788,22 @@
         <v>1</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="2" t="n">
         <v>1</v>
@@ -3815,16 +3815,16 @@
         <v>0</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="2" t="n">
         <v>0</v>
@@ -3836,16 +3836,16 @@
         <v>0</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="2" t="n">
         <v>0</v>
@@ -3854,16 +3854,16 @@
         <v>1</v>
       </c>
       <c r="AA26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="2" t="n">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>1</v>
       </c>
       <c r="AL26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26" s="3" t="inlineStr">
         <is>
@@ -3915,43 +3915,43 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -3963,16 +3963,16 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -3981,16 +3981,16 @@
         <v>1</v>
       </c>
       <c r="AA27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE27" t="n">
         <v>1</v>
@@ -4014,7 +4014,7 @@
         <v>1</v>
       </c>
       <c r="AL27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27" s="3" t="inlineStr">
         <is>
@@ -4048,22 +4048,22 @@
         <v>1</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="2" t="n">
         <v>1</v>
@@ -4075,16 +4075,16 @@
         <v>0</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="2" t="n">
         <v>0</v>
@@ -4096,16 +4096,16 @@
         <v>0</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W28" s="2" t="n">
         <v>1</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="2" t="n">
         <v>0</v>
@@ -4114,16 +4114,16 @@
         <v>1</v>
       </c>
       <c r="AA28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="2" t="n">
         <v>0</v>
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="AH28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI28" s="2" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>1</v>
       </c>
       <c r="AL28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28" s="3" t="inlineStr">
         <is>
@@ -4175,22 +4175,22 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>1</v>
@@ -4202,16 +4202,16 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -4223,16 +4223,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>1</v>
       </c>
       <c r="X29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -4241,19 +4241,19 @@
         <v>1</v>
       </c>
       <c r="AA29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF29" t="n">
         <v>0</v>
@@ -4262,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI29" t="n">
         <v>0</v>
@@ -4274,7 +4274,7 @@
         <v>1</v>
       </c>
       <c r="AL29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29" s="3" t="inlineStr">
         <is>
@@ -4305,25 +4305,25 @@
         <v>0</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K30" s="2" t="n">
         <v>1</v>
@@ -4335,16 +4335,16 @@
         <v>0</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="2" t="n">
         <v>0</v>
@@ -4356,16 +4356,16 @@
         <v>0</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30" s="2" t="n">
         <v>1</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="2" t="n">
         <v>0</v>
@@ -4374,16 +4374,16 @@
         <v>1</v>
       </c>
       <c r="AA30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="2" t="n">
         <v>0</v>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="AH30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI30" s="2" t="n">
         <v>0</v>
@@ -4407,7 +4407,7 @@
         <v>1</v>
       </c>
       <c r="AL30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30" s="3" t="inlineStr">
         <is>
@@ -4432,25 +4432,25 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>1</v>
@@ -4462,16 +4462,16 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4483,16 +4483,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>1</v>
       </c>
       <c r="X31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -4501,19 +4501,19 @@
         <v>1</v>
       </c>
       <c r="AA31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF31" t="n">
         <v>0</v>
@@ -4534,7 +4534,7 @@
         <v>1</v>
       </c>
       <c r="AL31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31" s="3" t="inlineStr">
         <is>
@@ -4565,25 +4565,25 @@
         <v>0</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K32" s="2" t="n">
         <v>1</v>
@@ -4595,16 +4595,16 @@
         <v>0</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="2" t="n">
         <v>0</v>
@@ -4616,16 +4616,16 @@
         <v>0</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="2" t="n">
         <v>0</v>
@@ -4634,16 +4634,16 @@
         <v>1</v>
       </c>
       <c r="AA32" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="2" t="n">
         <v>0</v>
@@ -4655,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="AH32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI32" s="2" t="n">
         <v>0</v>
@@ -4667,7 +4667,7 @@
         <v>1</v>
       </c>
       <c r="AL32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32" s="3" t="inlineStr">
         <is>
@@ -4692,25 +4692,25 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>1</v>
@@ -4722,16 +4722,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4743,16 +4743,16 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -4761,19 +4761,19 @@
         <v>1</v>
       </c>
       <c r="AA33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF33" t="n">
         <v>0</v>
@@ -4794,7 +4794,7 @@
         <v>1</v>
       </c>
       <c r="AL33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="3" t="inlineStr">
         <is>
@@ -4825,25 +4825,25 @@
         <v>0</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K34" s="2" t="n">
         <v>1</v>
@@ -4855,16 +4855,16 @@
         <v>0</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" s="2" t="n">
         <v>0</v>
@@ -4876,16 +4876,16 @@
         <v>0</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="2" t="n">
         <v>0</v>
@@ -4894,16 +4894,16 @@
         <v>1</v>
       </c>
       <c r="AA34" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE34" s="2" t="n">
         <v>0</v>
@@ -4915,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="AH34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI34" s="2" t="n">
         <v>0</v>
@@ -4927,7 +4927,7 @@
         <v>2</v>
       </c>
       <c r="AL34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34" s="3" t="inlineStr">
         <is>
@@ -4952,25 +4952,25 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>1</v>
@@ -4982,16 +4982,16 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5003,16 +5003,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -5021,19 +5021,19 @@
         <v>1</v>
       </c>
       <c r="AA35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF35" t="n">
         <v>0</v>
@@ -5054,7 +5054,7 @@
         <v>2</v>
       </c>
       <c r="AL35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35" s="3" t="inlineStr">
         <is>
@@ -5085,25 +5085,25 @@
         <v>0</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K36" s="2" t="n">
         <v>1</v>
@@ -5115,16 +5115,16 @@
         <v>0</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="2" t="n">
         <v>0</v>
@@ -5136,16 +5136,16 @@
         <v>0</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="2" t="n">
         <v>0</v>
@@ -5154,16 +5154,16 @@
         <v>1</v>
       </c>
       <c r="AA36" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE36" s="2" t="n">
         <v>0</v>
@@ -5175,19 +5175,19 @@
         <v>0</v>
       </c>
       <c r="AH36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AJ36" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK36" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="3" t="inlineStr">
         <is>
@@ -5212,46 +5212,46 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>1</v>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -5263,16 +5263,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -5281,16 +5281,16 @@
         <v>1</v>
       </c>
       <c r="AA37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE37" t="n">
         <v>1</v>
@@ -5302,19 +5302,19 @@
         <v>0</v>
       </c>
       <c r="AH37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI37" t="n">
         <v>0</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK37" t="n">
         <v>2</v>
       </c>
       <c r="AL37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37" s="3" t="inlineStr">
         <is>
@@ -5345,25 +5345,25 @@
         <v>0</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K38" s="2" t="n">
         <v>1</v>
@@ -5378,13 +5378,13 @@
         <v>1</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" s="2" t="n">
         <v>0</v>
@@ -5396,16 +5396,16 @@
         <v>0</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y38" s="2" t="n">
         <v>0</v>
@@ -5414,16 +5414,16 @@
         <v>1</v>
       </c>
       <c r="AA38" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE38" s="2" t="n">
         <v>0</v>
@@ -5435,19 +5435,19 @@
         <v>0</v>
       </c>
       <c r="AH38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AJ38" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK38" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM38" s="3" t="inlineStr">
         <is>
@@ -5472,25 +5472,25 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>1</v>
@@ -5505,13 +5505,13 @@
         <v>1</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -5523,16 +5523,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -5541,16 +5541,16 @@
         <v>1</v>
       </c>
       <c r="AA39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE39" t="n">
         <v>1</v>
@@ -5562,19 +5562,19 @@
         <v>0</v>
       </c>
       <c r="AH39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI39" t="n">
         <v>0</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK39" t="n">
         <v>2</v>
       </c>
       <c r="AL39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="3" t="inlineStr">
         <is>
@@ -5605,25 +5605,25 @@
         <v>0</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K40" s="2" t="n">
         <v>1</v>
@@ -5635,16 +5635,16 @@
         <v>0</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" s="2" t="n">
         <v>0</v>
@@ -5656,16 +5656,16 @@
         <v>0</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y40" s="2" t="n">
         <v>0</v>
@@ -5674,16 +5674,16 @@
         <v>1</v>
       </c>
       <c r="AA40" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE40" s="2" t="n">
         <v>0</v>
@@ -5695,19 +5695,19 @@
         <v>0</v>
       </c>
       <c r="AH40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AJ40" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK40" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="3" t="inlineStr">
         <is>
@@ -5732,46 +5732,46 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>1</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -5783,16 +5783,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -5801,19 +5801,19 @@
         <v>1</v>
       </c>
       <c r="AA41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF41" t="n">
         <v>0</v>
@@ -5828,13 +5828,13 @@
         <v>0</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK41" t="n">
         <v>2</v>
       </c>
       <c r="AL41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41" s="3" t="inlineStr">
         <is>
@@ -5865,25 +5865,25 @@
         <v>0</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K42" s="2" t="n">
         <v>1</v>
@@ -5898,13 +5898,13 @@
         <v>2</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" s="2" t="n">
         <v>0</v>
@@ -5916,16 +5916,16 @@
         <v>0</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y42" s="2" t="n">
         <v>0</v>
@@ -5937,13 +5937,13 @@
         <v>2</v>
       </c>
       <c r="AB42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE42" s="2" t="n">
         <v>0</v>
@@ -5955,19 +5955,19 @@
         <v>0</v>
       </c>
       <c r="AH42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AJ42" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK42" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42" s="3" t="inlineStr">
         <is>
@@ -5992,25 +5992,25 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>1</v>
@@ -6025,13 +6025,13 @@
         <v>2</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -6043,16 +6043,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -6064,16 +6064,16 @@
         <v>2</v>
       </c>
       <c r="AB43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF43" t="n">
         <v>0</v>
@@ -6088,13 +6088,13 @@
         <v>0</v>
       </c>
       <c r="AJ43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK43" t="n">
         <v>2</v>
       </c>
       <c r="AL43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43" s="3" t="inlineStr">
         <is>
@@ -6125,25 +6125,25 @@
         <v>0</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K44" s="2" t="n">
         <v>1</v>
@@ -6155,16 +6155,16 @@
         <v>0</v>
       </c>
       <c r="N44" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" s="2" t="n">
         <v>0</v>
@@ -6176,16 +6176,16 @@
         <v>0</v>
       </c>
       <c r="U44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W44" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X44" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y44" s="2" t="n">
         <v>0</v>
@@ -6197,13 +6197,13 @@
         <v>2</v>
       </c>
       <c r="AB44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE44" s="2" t="n">
         <v>0</v>
@@ -6215,19 +6215,19 @@
         <v>0</v>
       </c>
       <c r="AH44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AJ44" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK44" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44" s="3" t="inlineStr">
         <is>
@@ -6252,25 +6252,25 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>1</v>
@@ -6279,19 +6279,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -6303,16 +6303,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -6324,13 +6324,13 @@
         <v>2</v>
       </c>
       <c r="AB45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE45" t="n">
         <v>1</v>
@@ -6342,19 +6342,19 @@
         <v>0</v>
       </c>
       <c r="AH45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI45" t="n">
         <v>0</v>
       </c>
       <c r="AJ45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK45" t="n">
         <v>2</v>
       </c>
       <c r="AL45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM45" s="3" t="inlineStr">
         <is>
@@ -6385,25 +6385,25 @@
         <v>0</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K46" s="2" t="n">
         <v>1</v>
@@ -6418,13 +6418,13 @@
         <v>3</v>
       </c>
       <c r="O46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" s="2" t="n">
         <v>0</v>
@@ -6436,34 +6436,34 @@
         <v>0</v>
       </c>
       <c r="U46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W46" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA46" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="Y46" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA46" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE46" s="2" t="n">
         <v>0</v>
@@ -6475,19 +6475,19 @@
         <v>0</v>
       </c>
       <c r="AH46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AJ46" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK46" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46" s="3" t="inlineStr">
         <is>
@@ -6512,25 +6512,25 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
         <v>1</v>
@@ -6545,13 +6545,13 @@
         <v>3</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47" t="n">
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
@@ -6563,37 +6563,37 @@
         <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA47" t="n">
         <v>3</v>
       </c>
-      <c r="Y47" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>2</v>
-      </c>
       <c r="AB47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF47" t="n">
         <v>0</v>
@@ -6608,13 +6608,13 @@
         <v>0</v>
       </c>
       <c r="AJ47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK47" t="n">
         <v>2</v>
       </c>
       <c r="AL47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM47" s="3" t="inlineStr">
         <is>
@@ -6645,25 +6645,25 @@
         <v>0</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K48" s="2" t="n">
         <v>1</v>
@@ -6675,55 +6675,55 @@
         <v>0</v>
       </c>
       <c r="N48" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="X48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="O48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V48" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W48" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X48" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA48" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE48" s="2" t="n">
         <v>0</v>
@@ -6735,19 +6735,19 @@
         <v>0</v>
       </c>
       <c r="AH48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AJ48" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK48" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48" s="3" t="inlineStr">
         <is>
@@ -6772,88 +6772,88 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
         <v>1</v>
       </c>
       <c r="L49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
       <c r="N49" t="n">
+        <v>4</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>2</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA49" t="n">
         <v>3</v>
       </c>
-      <c r="O49" t="n">
-        <v>0</v>
-      </c>
-      <c r="P49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>0</v>
-      </c>
-      <c r="R49" t="n">
-        <v>0</v>
-      </c>
-      <c r="S49" t="n">
-        <v>0</v>
-      </c>
-      <c r="T49" t="n">
-        <v>0</v>
-      </c>
-      <c r="U49" t="n">
-        <v>0</v>
-      </c>
-      <c r="V49" t="n">
-        <v>1</v>
-      </c>
-      <c r="W49" t="n">
-        <v>1</v>
-      </c>
-      <c r="X49" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>2</v>
-      </c>
       <c r="AB49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD49" t="n">
         <v>1</v>
       </c>
       <c r="AE49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF49" t="n">
         <v>0</v>
@@ -6862,19 +6862,19 @@
         <v>0</v>
       </c>
       <c r="AH49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI49" t="n">
         <v>0</v>
       </c>
       <c r="AJ49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK49" t="n">
         <v>2</v>
       </c>
       <c r="AL49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM49" s="3" t="inlineStr">
         <is>
@@ -6905,25 +6905,25 @@
         <v>0</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K50" s="2" t="n">
         <v>1</v>
@@ -6935,55 +6935,55 @@
         <v>0</v>
       </c>
       <c r="N50" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O50" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U50" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="X50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA50" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="O50" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P50" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R50" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S50" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T50" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U50" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X50" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y50" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA50" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE50" s="2" t="n">
         <v>0</v>
@@ -6995,19 +6995,19 @@
         <v>0</v>
       </c>
       <c r="AH50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ50" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK50" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM50" s="3" t="inlineStr">
         <is>
@@ -7029,19 +7029,19 @@
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -7050,7 +7050,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
         <v>1</v>
@@ -7062,79 +7062,79 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
+        <v>4</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1</v>
+      </c>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>2</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA51" t="n">
         <v>3</v>
       </c>
-      <c r="O51" t="n">
-        <v>0</v>
-      </c>
-      <c r="P51" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>0</v>
-      </c>
-      <c r="R51" t="n">
-        <v>0</v>
-      </c>
-      <c r="S51" t="n">
-        <v>0</v>
-      </c>
-      <c r="T51" t="n">
-        <v>0</v>
-      </c>
-      <c r="U51" t="n">
-        <v>0</v>
-      </c>
-      <c r="V51" t="n">
-        <v>1</v>
-      </c>
-      <c r="W51" t="n">
-        <v>1</v>
-      </c>
-      <c r="X51" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>2</v>
-      </c>
       <c r="AB51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG51" t="n">
         <v>0</v>
       </c>
       <c r="AH51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK51" t="n">
         <v>2</v>
       </c>
       <c r="AL51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM51" s="3" t="inlineStr">
         <is>
@@ -7165,25 +7165,25 @@
         <v>0</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K52" s="2" t="n">
         <v>1</v>
@@ -7195,55 +7195,55 @@
         <v>0</v>
       </c>
       <c r="N52" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O52" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U52" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="X52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA52" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="O52" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P52" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R52" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S52" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T52" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U52" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V52" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W52" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X52" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y52" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA52" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE52" s="2" t="n">
         <v>0</v>
@@ -7255,19 +7255,19 @@
         <v>1</v>
       </c>
       <c r="AH52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ52" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK52" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM52" s="3" t="inlineStr">
         <is>
@@ -7289,112 +7289,112 @@
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
         <v>1</v>
       </c>
       <c r="L53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
       </c>
       <c r="N53" t="n">
+        <v>4</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>2</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA53" t="n">
         <v>3</v>
       </c>
-      <c r="O53" t="n">
-        <v>0</v>
-      </c>
-      <c r="P53" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>0</v>
-      </c>
-      <c r="R53" t="n">
-        <v>0</v>
-      </c>
-      <c r="S53" t="n">
-        <v>0</v>
-      </c>
-      <c r="T53" t="n">
-        <v>0</v>
-      </c>
-      <c r="U53" t="n">
-        <v>0</v>
-      </c>
-      <c r="V53" t="n">
-        <v>1</v>
-      </c>
-      <c r="W53" t="n">
-        <v>1</v>
-      </c>
-      <c r="X53" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>2</v>
-      </c>
       <c r="AB53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG53" t="n">
         <v>1</v>
       </c>
       <c r="AH53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK53" t="n">
         <v>2</v>
       </c>
       <c r="AL53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM53" s="3" t="inlineStr">
         <is>
@@ -7425,25 +7425,25 @@
         <v>0</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K54" s="2" t="n">
         <v>1</v>
@@ -7458,13 +7458,13 @@
         <v>4</v>
       </c>
       <c r="O54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54" s="2" t="n">
         <v>0</v>
@@ -7473,37 +7473,37 @@
         <v>0</v>
       </c>
       <c r="T54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W54" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="Y54" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA54" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE54" s="2" t="n">
         <v>0</v>
@@ -7515,19 +7515,19 @@
         <v>1</v>
       </c>
       <c r="AH54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ54" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK54" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM54" s="3" t="inlineStr">
         <is>
@@ -7552,16 +7552,16 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -7570,7 +7570,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
         <v>1</v>
@@ -7585,13 +7585,13 @@
         <v>4</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55" t="n">
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
@@ -7600,19 +7600,19 @@
         <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X55" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y55" t="n">
         <v>0</v>
@@ -7621,40 +7621,40 @@
         <v>1</v>
       </c>
       <c r="AA55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG55" t="n">
         <v>1</v>
       </c>
       <c r="AH55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK55" t="n">
         <v>2</v>
       </c>
       <c r="AL55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM55" s="3" t="inlineStr">
         <is>
@@ -7685,25 +7685,25 @@
         <v>0</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F56" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K56" s="2" t="n">
         <v>1</v>
@@ -7718,13 +7718,13 @@
         <v>4</v>
       </c>
       <c r="O56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P56" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56" s="2" t="n">
         <v>0</v>
@@ -7733,37 +7733,37 @@
         <v>0</v>
       </c>
       <c r="T56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W56" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA56" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="Y56" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z56" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA56" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE56" s="2" t="n">
         <v>0</v>
@@ -7775,13 +7775,13 @@
         <v>1</v>
       </c>
       <c r="AH56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ56" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK56" s="2" t="n">
         <v>2</v>
@@ -7812,25 +7812,25 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
         <v>1</v>
@@ -7845,13 +7845,13 @@
         <v>4</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -7860,40 +7860,40 @@
         <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA57" t="n">
         <v>4</v>
       </c>
-      <c r="Y57" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>2</v>
-      </c>
       <c r="AB57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF57" t="n">
         <v>0</v>
@@ -7905,10 +7905,10 @@
         <v>1</v>
       </c>
       <c r="AI57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK57" t="n">
         <v>2</v>
@@ -7945,25 +7945,25 @@
         <v>0</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K58" s="2" t="n">
         <v>1</v>
@@ -7978,52 +7978,52 @@
         <v>4</v>
       </c>
       <c r="O58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W58" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA58" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="Y58" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA58" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE58" s="2" t="n">
         <v>0</v>
@@ -8035,13 +8035,13 @@
         <v>1</v>
       </c>
       <c r="AH58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ58" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK58" s="2" t="n">
         <v>2</v>
@@ -8072,31 +8072,31 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
         <v>1</v>
       </c>
       <c r="L59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
@@ -8105,55 +8105,55 @@
         <v>4</v>
       </c>
       <c r="O59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA59" t="n">
         <v>4</v>
       </c>
-      <c r="Y59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z59" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA59" t="n">
-        <v>2</v>
-      </c>
       <c r="AB59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD59" t="n">
         <v>1</v>
       </c>
       <c r="AE59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF59" t="n">
         <v>0</v>
@@ -8162,13 +8162,13 @@
         <v>1</v>
       </c>
       <c r="AH59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK59" t="n">
         <v>2</v>
@@ -8205,25 +8205,25 @@
         <v>0</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F60" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K60" s="2" t="n">
         <v>1</v>
@@ -8238,52 +8238,52 @@
         <v>4</v>
       </c>
       <c r="O60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P60" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W60" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA60" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="Y60" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z60" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA60" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC60" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AD60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE60" s="2" t="n">
         <v>0</v>
@@ -8295,13 +8295,13 @@
         <v>1</v>
       </c>
       <c r="AH60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ60" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK60" s="2" t="n">
         <v>2</v>
@@ -8332,25 +8332,25 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
         <v>1</v>
@@ -8365,52 +8365,52 @@
         <v>4</v>
       </c>
       <c r="O61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA61" t="n">
         <v>4</v>
       </c>
-      <c r="Y61" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>2</v>
-      </c>
       <c r="AB61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC61" t="n">
         <v>1</v>
       </c>
       <c r="AD61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE61" t="n">
         <v>1</v>
@@ -8425,10 +8425,10 @@
         <v>1</v>
       </c>
       <c r="AI61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK61" t="n">
         <v>2</v>
@@ -8465,25 +8465,25 @@
         <v>0</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F62" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" s="2" t="n">
         <v>1</v>
       </c>
       <c r="I62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K62" s="2" t="n">
         <v>1</v>
@@ -8504,46 +8504,46 @@
         <v>0</v>
       </c>
       <c r="Q62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W62" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA62" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="Y62" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z62" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA62" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC62" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AD62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE62" s="2" t="n">
         <v>0</v>
@@ -8555,13 +8555,13 @@
         <v>1</v>
       </c>
       <c r="AH62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ62" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK62" s="2" t="n">
         <v>2</v>
@@ -8592,25 +8592,25 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
         <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K63" t="n">
         <v>1</v>
@@ -8619,7 +8619,7 @@
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
         <v>4</v>
@@ -8631,40 +8631,40 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA63" t="n">
         <v>4</v>
       </c>
-      <c r="Y63" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA63" t="n">
-        <v>2</v>
-      </c>
       <c r="AB63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC63" t="n">
         <v>1</v>
@@ -8685,10 +8685,10 @@
         <v>1</v>
       </c>
       <c r="AI63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK63" t="n">
         <v>2</v>
@@ -8725,10 +8725,10 @@
         <v>0</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F64" s="2" t="n">
         <v>0</v>
@@ -8740,10 +8740,10 @@
         <v>1</v>
       </c>
       <c r="I64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K64" s="2" t="n">
         <v>1</v>
@@ -8764,46 +8764,46 @@
         <v>0</v>
       </c>
       <c r="Q64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S64" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V64" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W64" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X64" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y64" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA64" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="Y64" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z64" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA64" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC64" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AD64" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE64" s="2" t="n">
         <v>0</v>
@@ -8815,13 +8815,13 @@
         <v>1</v>
       </c>
       <c r="AH64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI64" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ64" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK64" s="2" t="n">
         <v>2</v>
@@ -8852,10 +8852,10 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
@@ -8867,10 +8867,10 @@
         <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K65" t="n">
         <v>1</v>
@@ -8879,7 +8879,7 @@
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N65" t="n">
         <v>4</v>
@@ -8891,40 +8891,40 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S65" t="n">
         <v>1</v>
       </c>
       <c r="T65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA65" t="n">
         <v>4</v>
       </c>
-      <c r="Y65" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA65" t="n">
-        <v>2</v>
-      </c>
       <c r="AB65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC65" t="n">
         <v>1</v>
@@ -8936,7 +8936,7 @@
         <v>1</v>
       </c>
       <c r="AF65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG65" t="n">
         <v>1</v>
@@ -8945,10 +8945,10 @@
         <v>1</v>
       </c>
       <c r="AI65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK65" t="n">
         <v>2</v>
@@ -8985,10 +8985,10 @@
         <v>0</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" s="2" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>1</v>
       </c>
       <c r="J66" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K66" s="2" t="n">
         <v>1</v>
@@ -9024,46 +9024,46 @@
         <v>0</v>
       </c>
       <c r="Q66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S66" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V66" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W66" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X66" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y66" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA66" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="Y66" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z66" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA66" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC66" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AD66" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE66" s="2" t="n">
         <v>0</v>
@@ -9075,13 +9075,13 @@
         <v>1</v>
       </c>
       <c r="AH66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI66" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ66" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK66" s="2" t="n">
         <v>2</v>
@@ -9112,10 +9112,10 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
@@ -9130,7 +9130,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
         <v>1</v>
@@ -9139,7 +9139,7 @@
         <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
         <v>4</v>
@@ -9151,40 +9151,40 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X67" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA67" t="n">
         <v>4</v>
       </c>
-      <c r="Y67" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z67" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA67" t="n">
-        <v>2</v>
-      </c>
       <c r="AB67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC67" t="n">
         <v>1</v>
@@ -9205,10 +9205,10 @@
         <v>1</v>
       </c>
       <c r="AI67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK67" t="n">
         <v>2</v>
